--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learnings\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6FF540-27BA-4A0F-AD8A-F481765D9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F098B9-9F6E-453A-8326-14264D9733CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="2472" windowWidth="10140" windowHeight="4740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>egrfbvdf</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">fdvfevc </t>
+  </si>
+  <si>
+    <t>dffbvedfsvrfvscfrvfre</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -369,9 +372,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
